--- a/prodinfo/mea/sa/output/res20260131.xlsx
+++ b/prodinfo/mea/sa/output/res20260131.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-31 05:05:58</v>
+        <v>2026-01-31 05:25:25</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-31 05:06:25</v>
+        <v>2026-01-31 05:25:29</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-31 05:06:30</v>
+        <v>2026-01-31 05:25:33</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-31 05:06:59</v>
+        <v>2026-01-31 05:25:35</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-31 05:07:06</v>
+        <v>2026-01-31 05:25:39</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-31 05:07:11</v>
+        <v>2026-01-31 05:25:43</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-31 05:07:15</v>
+        <v>2026-01-31 05:25:47</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-31 05:07:28</v>
+        <v>2026-01-31 05:25:51</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-31 05:07:32</v>
+        <v>2026-01-31 05:25:57</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-31 05:08:22</v>
+        <v>2026-01-31 05:26:01</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-31 05:08:33</v>
+        <v>2026-01-31 05:26:06</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-31 05:08:42</v>
+        <v>2026-01-31 05:26:10</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-31 05:08:46</v>
+        <v>2026-01-31 05:26:16</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-31 05:08:54</v>
+        <v>2026-01-31 05:26:19</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-31 05:09:00</v>
+        <v>2026-01-31 05:26:23</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-31 05:09:07</v>
+        <v>2026-01-31 05:26:27</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-31 05:09:14</v>
+        <v>2026-01-31 05:26:33</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-31 05:09:18</v>
+        <v>2026-01-31 05:26:35</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-31 05:09:23</v>
+        <v>2026-01-31 05:26:40</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-31 05:09:29</v>
+        <v>2026-01-31 05:26:44</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-31 05:09:32</v>
+        <v>2026-01-31 05:26:48</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-01-31 05:09:39</v>
+        <v>2026-01-31 05:26:52</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-01-31 05:09:43</v>
+        <v>2026-01-31 05:26:57</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-01-31 05:09:49</v>
+        <v>2026-01-31 05:26:59</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-01-31 05:09:55</v>
+        <v>2026-01-31 05:27:05</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-01-31 05:09:59</v>
+        <v>2026-01-31 05:27:08</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-01-31 05:10:06</v>
+        <v>2026-01-31 05:27:11</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-01-31 05:10:13</v>
+        <v>2026-01-31 05:27:15</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-01-31 05:10:17</v>
+        <v>2026-01-31 05:27:18</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-01-31 05:10:21</v>
+        <v>2026-01-31 05:27:21</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-01-31 05:10:26</v>
+        <v>2026-01-31 05:27:26</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-01-31 05:10:30</v>
+        <v>2026-01-31 05:27:29</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-01-31 05:10:37</v>
+        <v>2026-01-31 05:27:34</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-01-31 05:10:40</v>
+        <v>2026-01-31 05:27:40</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-01-31 05:10:47</v>
+        <v>2026-01-31 05:27:42</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-01-31 05:10:53</v>
+        <v>2026-01-31 05:27:46</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-01-31 05:10:57</v>
+        <v>2026-01-31 05:27:51</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-01-31 05:11:02</v>
+        <v>2026-01-31 05:27:54</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-01-31 05:11:07</v>
+        <v>2026-01-31 05:27:58</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-01-31 05:11:12</v>
+        <v>2026-01-31 05:28:01</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-01-31 05:11:23</v>
+        <v>2026-01-31 05:28:04</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-01-31 05:11:31</v>
+        <v>2026-01-31 05:28:09</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-01-31 05:11:37</v>
+        <v>2026-01-31 05:28:14</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-01-31 05:11:43</v>
+        <v>2026-01-31 05:28:19</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-01-31 05:11:50</v>
+        <v>2026-01-31 05:28:24</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-01-31 05:11:55</v>
+        <v>2026-01-31 05:28:29</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-01-31 05:12:01</v>
+        <v>2026-01-31 05:28:31</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-01-31 05:12:06</v>
+        <v>2026-01-31 05:28:36</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-01-31 05:12:27</v>
+        <v>2026-01-31 05:28:41</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2026-01-31 05:12:34</v>
+        <v>2026-01-31 05:28:46</v>
       </c>
       <c r="B51" t="str">
         <v>沙特</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2026-01-31 05:12:38</v>
+        <v>2026-01-31 05:28:48</v>
       </c>
       <c r="B52" t="str">
         <v>沙特</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2026-01-31 05:12:43</v>
+        <v>2026-01-31 05:28:51</v>
       </c>
       <c r="B53" t="str">
         <v>沙特</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-01-31 05:12:49</v>
+        <v>2026-01-31 05:28:54</v>
       </c>
       <c r="B54" t="str">
         <v>沙特</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2026-01-31 05:12:53</v>
+        <v>2026-01-31 05:28:58</v>
       </c>
       <c r="B55" t="str">
         <v>沙特</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2026-01-31 05:12:58</v>
+        <v>2026-01-31 05:29:02</v>
       </c>
       <c r="B56" t="str">
         <v>沙特</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2026-01-31 05:13:05</v>
+        <v>2026-01-31 05:29:05</v>
       </c>
       <c r="B57" t="str">
         <v>沙特</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2026-01-31 05:13:13</v>
+        <v>2026-01-31 05:29:10</v>
       </c>
       <c r="B58" t="str">
         <v>沙特</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2026-01-31 05:13:18</v>
+        <v>2026-01-31 05:29:15</v>
       </c>
       <c r="B59" t="str">
         <v>沙特</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2026-01-31 05:13:24</v>
+        <v>2026-01-31 05:29:17</v>
       </c>
       <c r="B60" t="str">
         <v>沙特</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2026-01-31 05:13:32</v>
+        <v>2026-01-31 05:29:22</v>
       </c>
       <c r="B61" t="str">
         <v>沙特</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2026-01-31 05:13:46</v>
+        <v>2026-01-31 05:29:25</v>
       </c>
       <c r="B62" t="str">
         <v>沙特</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2026-01-31 05:13:54</v>
+        <v>2026-01-31 05:29:30</v>
       </c>
       <c r="B63" t="str">
         <v>沙特</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2026-01-31 05:13:58</v>
+        <v>2026-01-31 05:29:35</v>
       </c>
       <c r="B64" t="str">
         <v>沙特</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2026-01-31 05:14:04</v>
+        <v>2026-01-31 05:29:38</v>
       </c>
       <c r="B65" t="str">
         <v>沙特</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2026-01-31 05:14:12</v>
+        <v>2026-01-31 05:29:41</v>
       </c>
       <c r="B66" t="str">
         <v>沙特</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2026-01-31 05:14:19</v>
+        <v>2026-01-31 05:29:47</v>
       </c>
       <c r="B67" t="str">
         <v>沙特</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2026-01-31 05:14:23</v>
+        <v>2026-01-31 05:29:50</v>
       </c>
       <c r="B68" t="str">
         <v>沙特</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2026-01-31 05:14:28</v>
+        <v>2026-01-31 05:29:55</v>
       </c>
       <c r="B69" t="str">
         <v>沙特</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2026-01-31 05:14:32</v>
+        <v>2026-01-31 05:29:57</v>
       </c>
       <c r="B70" t="str">
         <v>沙特</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2026-01-31 05:14:37</v>
+        <v>2026-01-31 05:29:59</v>
       </c>
       <c r="B71" t="str">
         <v>沙特</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2026-01-31 05:14:43</v>
+        <v>2026-01-31 05:30:04</v>
       </c>
       <c r="B72" t="str">
         <v>沙特</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2026-01-31 05:14:48</v>
+        <v>2026-01-31 05:30:08</v>
       </c>
       <c r="B73" t="str">
         <v>沙特</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2026-01-31 05:14:55</v>
+        <v>2026-01-31 05:30:11</v>
       </c>
       <c r="B74" t="str">
         <v>沙特</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2026-01-31 05:15:02</v>
+        <v>2026-01-31 05:30:16</v>
       </c>
       <c r="B75" t="str">
         <v>沙特</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2026-01-31 05:15:10</v>
+        <v>2026-01-31 05:30:19</v>
       </c>
       <c r="B76" t="str">
         <v>沙特</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2026-01-31 05:15:23</v>
+        <v>2026-01-31 05:30:25</v>
       </c>
       <c r="B77" t="str">
         <v>沙特</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2026-01-31 05:15:32</v>
+        <v>2026-01-31 05:30:28</v>
       </c>
       <c r="B78" t="str">
         <v>沙特</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2026-01-31 05:15:36</v>
+        <v>2026-01-31 05:30:34</v>
       </c>
       <c r="B79" t="str">
         <v>沙特</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2026-01-31 05:15:43</v>
+        <v>2026-01-31 05:30:37</v>
       </c>
       <c r="B80" t="str">
         <v>沙特</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2026-01-31 05:15:48</v>
+        <v>2026-01-31 05:30:41</v>
       </c>
       <c r="B81" t="str">
         <v>沙特</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2026-01-31 05:15:55</v>
+        <v>2026-01-31 05:30:44</v>
       </c>
       <c r="B82" t="str">
         <v>沙特</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2026-01-31 05:16:23</v>
+        <v>2026-01-31 05:30:53</v>
       </c>
       <c r="B83" t="str">
         <v>沙特</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2026-01-31 05:16:29</v>
+        <v>2026-01-31 05:30:56</v>
       </c>
       <c r="B84" t="str">
         <v>沙特</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2026-01-31 05:16:33</v>
+        <v>2026-01-31 05:30:58</v>
       </c>
       <c r="B85" t="str">
         <v>沙特</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2026-01-31 05:16:40</v>
+        <v>2026-01-31 05:31:00</v>
       </c>
       <c r="B86" t="str">
         <v>沙特</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2026-01-31 05:16:45</v>
+        <v>2026-01-31 05:31:03</v>
       </c>
       <c r="B87" t="str">
         <v>沙特</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2026-01-31 05:16:50</v>
+        <v>2026-01-31 05:31:07</v>
       </c>
       <c r="B88" t="str">
         <v>沙特</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2026-01-31 05:17:00</v>
+        <v>2026-01-31 05:31:12</v>
       </c>
       <c r="B89" t="str">
         <v>沙特</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2026-01-31 05:17:12</v>
+        <v>2026-01-31 05:31:17</v>
       </c>
       <c r="B90" t="str">
         <v>沙特</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2026-01-31 05:17:23</v>
+        <v>2026-01-31 05:31:20</v>
       </c>
       <c r="B91" t="str">
         <v>沙特</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2026-01-31 05:17:30</v>
+        <v>2026-01-31 05:31:25</v>
       </c>
       <c r="B92" t="str">
         <v>沙特</v>
